--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.3171477757718</v>
+        <v>68.392882</v>
       </c>
       <c r="H2">
-        <v>59.3171477757718</v>
+        <v>205.178646</v>
       </c>
       <c r="I2">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156464</v>
       </c>
       <c r="J2">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156463</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.51457399443737</v>
+        <v>6.437867666666667</v>
       </c>
       <c r="N2">
-        <v>4.51457399443737</v>
+        <v>19.313603</v>
       </c>
       <c r="O2">
-        <v>0.331196614751496</v>
+        <v>0.4097687230856996</v>
       </c>
       <c r="P2">
-        <v>0.331196614751496</v>
+        <v>0.4097687230856996</v>
       </c>
       <c r="Q2">
-        <v>267.7916527726979</v>
+        <v>440.3043236579487</v>
       </c>
       <c r="R2">
-        <v>267.7916527726979</v>
+        <v>3962.738912921538</v>
       </c>
       <c r="S2">
-        <v>0.1188677783861235</v>
+        <v>0.156408829090559</v>
       </c>
       <c r="T2">
-        <v>0.1188677783861235</v>
+        <v>0.1564088290905589</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.3171477757718</v>
+        <v>68.392882</v>
       </c>
       <c r="H3">
-        <v>59.3171477757718</v>
+        <v>205.178646</v>
       </c>
       <c r="I3">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156464</v>
       </c>
       <c r="J3">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156463</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.09292050996721</v>
+        <v>7.162274333333333</v>
       </c>
       <c r="N3">
-        <v>7.09292050996721</v>
+        <v>21.486823</v>
       </c>
       <c r="O3">
-        <v>0.5203483793813325</v>
+        <v>0.4558770325701756</v>
       </c>
       <c r="P3">
-        <v>0.5203483793813325</v>
+        <v>0.4558770325701756</v>
       </c>
       <c r="Q3">
-        <v>420.7318140515277</v>
+        <v>489.8485833312953</v>
       </c>
       <c r="R3">
-        <v>420.7318140515277</v>
+        <v>4408.637249981658</v>
       </c>
       <c r="S3">
-        <v>0.1867550967883175</v>
+        <v>0.1740083829157145</v>
       </c>
       <c r="T3">
-        <v>0.1867550967883175</v>
+        <v>0.1740083829157145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.3171477757718</v>
+        <v>68.392882</v>
       </c>
       <c r="H4">
-        <v>59.3171477757718</v>
+        <v>205.178646</v>
       </c>
       <c r="I4">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156464</v>
       </c>
       <c r="J4">
-        <v>0.3589039654747455</v>
+        <v>0.3817002623156463</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.02360494938891</v>
+        <v>2.110836666666667</v>
       </c>
       <c r="N4">
-        <v>2.02360494938891</v>
+        <v>6.33251</v>
       </c>
       <c r="O4">
-        <v>0.1484550058671714</v>
+        <v>0.1343542443441249</v>
       </c>
       <c r="P4">
-        <v>0.1484550058671714</v>
+        <v>0.1343542443441249</v>
       </c>
       <c r="Q4">
-        <v>120.0344738226852</v>
+        <v>144.3662030646067</v>
       </c>
       <c r="R4">
-        <v>120.0344738226852</v>
+        <v>1299.29582758146</v>
       </c>
       <c r="S4">
-        <v>0.05328109030030442</v>
+        <v>0.05128305030937291</v>
       </c>
       <c r="T4">
-        <v>0.05328109030030442</v>
+        <v>0.05128305030937291</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>60.070762839672</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H5">
-        <v>60.070762839672</v>
+        <v>180.617317</v>
       </c>
       <c r="I5">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="J5">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.51457399443737</v>
+        <v>6.437867666666667</v>
       </c>
       <c r="N5">
-        <v>4.51457399443737</v>
+        <v>19.313603</v>
       </c>
       <c r="O5">
-        <v>0.331196614751496</v>
+        <v>0.4097687230856996</v>
       </c>
       <c r="P5">
-        <v>0.331196614751496</v>
+        <v>0.4097687230856996</v>
       </c>
       <c r="Q5">
-        <v>271.193903741998</v>
+        <v>387.5967950514612</v>
       </c>
       <c r="R5">
-        <v>271.193903741998</v>
+        <v>3488.371155463151</v>
       </c>
       <c r="S5">
-        <v>0.1203779748767363</v>
+        <v>0.1376855906605813</v>
       </c>
       <c r="T5">
-        <v>0.1203779748767363</v>
+        <v>0.1376855906605813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>60.070762839672</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H6">
-        <v>60.070762839672</v>
+        <v>180.617317</v>
       </c>
       <c r="I6">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="J6">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.09292050996721</v>
+        <v>7.162274333333333</v>
       </c>
       <c r="N6">
-        <v>7.09292050996721</v>
+        <v>21.486823</v>
       </c>
       <c r="O6">
-        <v>0.5203483793813325</v>
+        <v>0.4558770325701756</v>
       </c>
       <c r="P6">
-        <v>0.5203483793813325</v>
+        <v>0.4558770325701756</v>
       </c>
       <c r="Q6">
-        <v>426.0771457948857</v>
+        <v>431.2102579015435</v>
       </c>
       <c r="R6">
-        <v>426.0771457948857</v>
+        <v>3880.892321113891</v>
       </c>
       <c r="S6">
-        <v>0.1891277910171742</v>
+        <v>0.1531783539391569</v>
       </c>
       <c r="T6">
-        <v>0.1891277910171742</v>
+        <v>0.1531783539391569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.070762839672</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H7">
-        <v>60.070762839672</v>
+        <v>180.617317</v>
       </c>
       <c r="I7">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="J7">
-        <v>0.3634637840941053</v>
+        <v>0.3360080526004068</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.02360494938891</v>
+        <v>2.110836666666667</v>
       </c>
       <c r="N7">
-        <v>2.02360494938891</v>
+        <v>6.33251</v>
       </c>
       <c r="O7">
-        <v>0.1484550058671714</v>
+        <v>0.1343542443441249</v>
       </c>
       <c r="P7">
-        <v>0.1484550058671714</v>
+        <v>0.1343542443441249</v>
       </c>
       <c r="Q7">
-        <v>121.5594929959277</v>
+        <v>127.0845517861856</v>
       </c>
       <c r="R7">
-        <v>121.5594929959277</v>
+        <v>1143.76096607567</v>
       </c>
       <c r="S7">
-        <v>0.05395801820019473</v>
+        <v>0.04514410800066863</v>
       </c>
       <c r="T7">
-        <v>0.05395801820019473</v>
+        <v>0.04514410800066863</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.8851247418256</v>
+        <v>50.58089766666667</v>
       </c>
       <c r="H8">
-        <v>45.8851247418256</v>
+        <v>151.742693</v>
       </c>
       <c r="I8">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="J8">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.51457399443737</v>
+        <v>6.437867666666667</v>
       </c>
       <c r="N8">
-        <v>4.51457399443737</v>
+        <v>19.313603</v>
       </c>
       <c r="O8">
-        <v>0.331196614751496</v>
+        <v>0.4097687230856996</v>
       </c>
       <c r="P8">
-        <v>0.331196614751496</v>
+        <v>0.4097687230856996</v>
       </c>
       <c r="Q8">
-        <v>207.1517908909606</v>
+        <v>325.6331256392087</v>
       </c>
       <c r="R8">
-        <v>207.1517908909606</v>
+        <v>2930.698130752879</v>
       </c>
       <c r="S8">
-        <v>0.09195086148863617</v>
+        <v>0.1156743033345593</v>
       </c>
       <c r="T8">
-        <v>0.09195086148863617</v>
+        <v>0.1156743033345593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.8851247418256</v>
+        <v>50.58089766666667</v>
       </c>
       <c r="H9">
-        <v>45.8851247418256</v>
+        <v>151.742693</v>
       </c>
       <c r="I9">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="J9">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.09292050996721</v>
+        <v>7.162274333333333</v>
       </c>
       <c r="N9">
-        <v>7.09292050996721</v>
+        <v>21.486823</v>
       </c>
       <c r="O9">
-        <v>0.5203483793813325</v>
+        <v>0.4558770325701756</v>
       </c>
       <c r="P9">
-        <v>0.5203483793813325</v>
+        <v>0.4558770325701756</v>
       </c>
       <c r="Q9">
-        <v>325.4595423836987</v>
+        <v>362.2742651149265</v>
       </c>
       <c r="R9">
-        <v>325.4595423836987</v>
+        <v>3260.468386034339</v>
       </c>
       <c r="S9">
-        <v>0.1444654915758407</v>
+        <v>0.1286902957153041</v>
       </c>
       <c r="T9">
-        <v>0.1444654915758407</v>
+        <v>0.1286902957153041</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.8851247418256</v>
+        <v>50.58089766666667</v>
       </c>
       <c r="H10">
-        <v>45.8851247418256</v>
+        <v>151.742693</v>
       </c>
       <c r="I10">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="J10">
-        <v>0.2776322504311492</v>
+        <v>0.2822916850839468</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.02360494938891</v>
+        <v>2.110836666666667</v>
       </c>
       <c r="N10">
-        <v>2.02360494938891</v>
+        <v>6.33251</v>
       </c>
       <c r="O10">
-        <v>0.1484550058671714</v>
+        <v>0.1343542443441249</v>
       </c>
       <c r="P10">
-        <v>0.1484550058671714</v>
+        <v>0.1343542443441249</v>
       </c>
       <c r="Q10">
-        <v>92.85336553088581</v>
+        <v>106.7680134277144</v>
       </c>
       <c r="R10">
-        <v>92.85336553088581</v>
+        <v>960.91212084943</v>
       </c>
       <c r="S10">
-        <v>0.04121589736667226</v>
+        <v>0.03792708603408333</v>
       </c>
       <c r="T10">
-        <v>0.04121589736667226</v>
+        <v>0.03792708603408333</v>
       </c>
     </row>
   </sheetData>
